--- a/data/price_groups.xlsx
+++ b/data/price_groups.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonnapander/Desktop/Capstone/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2E37DD-D1E3-4F40-AEB2-5E0E36CFD7A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="52740" yWindow="6040" windowWidth="16100" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -490,8 +496,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,6 +573,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -613,7 +627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,9 +659,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -679,6 +711,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -854,14 +904,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -898,10 +950,10 @@
         <v>46</v>
       </c>
       <c r="C2">
-        <v>30.4558345</v>
+        <v>30.455834500000002</v>
       </c>
       <c r="D2">
-        <v>-97.8070957</v>
+        <v>-97.807095700000005</v>
       </c>
       <c r="E2" t="s">
         <v>83</v>
@@ -919,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -927,10 +979,10 @@
         <v>47</v>
       </c>
       <c r="C3">
-        <v>30.2515707</v>
+        <v>30.251570699999998</v>
       </c>
       <c r="D3">
-        <v>-97.78410579999999</v>
+        <v>-97.784105799999992</v>
       </c>
       <c r="E3" t="s">
         <v>84</v>
@@ -948,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -956,7 +1008,7 @@
         <v>48</v>
       </c>
       <c r="C4">
-        <v>30.255667</v>
+        <v>30.255666999999999</v>
       </c>
       <c r="D4">
         <v>-97.7554813</v>
@@ -977,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -985,10 +1037,10 @@
         <v>49</v>
       </c>
       <c r="C5">
-        <v>30.3312641</v>
+        <v>30.331264099999999</v>
       </c>
       <c r="D5">
-        <v>-97.73646529999999</v>
+        <v>-97.736465299999992</v>
       </c>
       <c r="E5" t="s">
         <v>86</v>
@@ -1006,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1017,7 +1069,7 @@
         <v>30.305246</v>
       </c>
       <c r="D6">
-        <v>-97.75458459999999</v>
+        <v>-97.754584599999987</v>
       </c>
       <c r="E6" t="s">
         <v>87</v>
@@ -1035,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1043,10 +1095,10 @@
         <v>51</v>
       </c>
       <c r="C7">
-        <v>30.434033</v>
+        <v>30.434032999999999</v>
       </c>
       <c r="D7">
-        <v>-97.820708</v>
+        <v>-97.820707999999996</v>
       </c>
       <c r="E7" t="s">
         <v>88</v>
@@ -1064,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1072,10 +1124,10 @@
         <v>52</v>
       </c>
       <c r="C8">
-        <v>30.190339</v>
+        <v>30.190339000000002</v>
       </c>
       <c r="D8">
-        <v>-97.88905</v>
+        <v>-97.889049999999997</v>
       </c>
       <c r="E8" t="s">
         <v>89</v>
@@ -1093,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1101,10 +1153,10 @@
         <v>53</v>
       </c>
       <c r="C9">
-        <v>30.2776796</v>
+        <v>30.277679599999999</v>
       </c>
       <c r="D9">
-        <v>-97.75980749999999</v>
+        <v>-97.759807499999994</v>
       </c>
       <c r="E9" t="s">
         <v>90</v>
@@ -1122,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1130,7 +1182,7 @@
         <v>54</v>
       </c>
       <c r="C10">
-        <v>30.390705</v>
+        <v>30.390705000000001</v>
       </c>
       <c r="D10">
         <v>-97.65905459999999</v>
@@ -1151,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1159,10 +1211,10 @@
         <v>55</v>
       </c>
       <c r="C11">
-        <v>30.3458293</v>
+        <v>30.345829299999998</v>
       </c>
       <c r="D11">
-        <v>-97.7247612</v>
+        <v>-97.724761200000003</v>
       </c>
       <c r="E11" t="s">
         <v>92</v>
@@ -1180,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1188,10 +1240,10 @@
         <v>56</v>
       </c>
       <c r="C12">
-        <v>30.2329257</v>
+        <v>30.232925699999999</v>
       </c>
       <c r="D12">
-        <v>-97.7614176</v>
+        <v>-97.761417600000001</v>
       </c>
       <c r="E12" t="s">
         <v>93</v>
@@ -1209,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1217,10 +1269,10 @@
         <v>57</v>
       </c>
       <c r="C13">
-        <v>30.1865487</v>
+        <v>30.186548699999999</v>
       </c>
       <c r="D13">
-        <v>-97.73739887317082</v>
+        <v>-97.737398873170818</v>
       </c>
       <c r="E13" t="s">
         <v>94</v>
@@ -1238,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1246,10 +1298,10 @@
         <v>58</v>
       </c>
       <c r="C14">
-        <v>30.2680536</v>
+        <v>30.268053599999998</v>
       </c>
       <c r="D14">
-        <v>-97.74476420000001</v>
+        <v>-97.744764200000006</v>
       </c>
       <c r="E14" t="s">
         <v>95</v>
@@ -1267,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1275,10 +1327,10 @@
         <v>59</v>
       </c>
       <c r="C15">
-        <v>30.2558955</v>
+        <v>30.255895500000001</v>
       </c>
       <c r="D15">
-        <v>-97.7317072</v>
+        <v>-97.731707200000002</v>
       </c>
       <c r="E15" t="s">
         <v>96</v>
@@ -1296,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1304,10 +1356,10 @@
         <v>60</v>
       </c>
       <c r="C16">
-        <v>30.155247</v>
+        <v>30.155246999999999</v>
       </c>
       <c r="D16">
-        <v>-97.71876400000001</v>
+        <v>-97.718764000000007</v>
       </c>
       <c r="E16" t="s">
         <v>97</v>
@@ -1325,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1333,10 +1385,10 @@
         <v>61</v>
       </c>
       <c r="C17">
-        <v>30.2355778</v>
+        <v>30.235577800000002</v>
       </c>
       <c r="D17">
-        <v>-97.76851490000001</v>
+        <v>-97.768514900000014</v>
       </c>
       <c r="E17" t="s">
         <v>98</v>
@@ -1354,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1362,7 +1414,7 @@
         <v>62</v>
       </c>
       <c r="C18">
-        <v>30.220591</v>
+        <v>30.220590999999999</v>
       </c>
       <c r="D18">
         <v>-97.899507</v>
@@ -1383,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1391,10 +1443,10 @@
         <v>63</v>
       </c>
       <c r="C19">
-        <v>30.2958956</v>
+        <v>30.295895600000001</v>
       </c>
       <c r="D19">
-        <v>-97.7247678</v>
+        <v>-97.724767799999995</v>
       </c>
       <c r="E19" t="s">
         <v>100</v>
@@ -1412,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1420,10 +1472,10 @@
         <v>64</v>
       </c>
       <c r="C20">
-        <v>30.3044117</v>
+        <v>30.304411699999999</v>
       </c>
       <c r="D20">
-        <v>-97.73044849999999</v>
+        <v>-97.730448499999994</v>
       </c>
       <c r="E20" t="s">
         <v>101</v>
@@ -1441,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1452,7 +1504,7 @@
         <v>30.2965242</v>
       </c>
       <c r="D21">
-        <v>-97.7002032</v>
+        <v>-97.700203200000004</v>
       </c>
       <c r="E21" t="s">
         <v>102</v>
@@ -1470,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1481,7 +1533,7 @@
         <v>30.4051334</v>
       </c>
       <c r="D22">
-        <v>-97.71596509999999</v>
+        <v>-97.715965099999991</v>
       </c>
       <c r="E22" t="s">
         <v>103</v>
@@ -1499,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1507,10 +1559,10 @@
         <v>67</v>
       </c>
       <c r="C23">
-        <v>30.364689</v>
+        <v>30.364688999999998</v>
       </c>
       <c r="D23">
-        <v>-97.73502380000001</v>
+        <v>-97.735023800000008</v>
       </c>
       <c r="E23" t="s">
         <v>104</v>
@@ -1528,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1536,10 +1588,10 @@
         <v>68</v>
       </c>
       <c r="C24">
-        <v>30.231431</v>
+        <v>30.231431000000001</v>
       </c>
       <c r="D24">
-        <v>-97.865314</v>
+        <v>-97.865313999999998</v>
       </c>
       <c r="E24" t="s">
         <v>105</v>
@@ -1557,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1565,10 +1617,10 @@
         <v>69</v>
       </c>
       <c r="C25">
-        <v>30.296822</v>
+        <v>30.296821999999999</v>
       </c>
       <c r="D25">
-        <v>-97.75485140000001</v>
+        <v>-97.754851400000007</v>
       </c>
       <c r="E25" t="s">
         <v>106</v>
@@ -1586,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1594,10 +1646,10 @@
         <v>70</v>
       </c>
       <c r="C26">
-        <v>30.140056</v>
+        <v>30.140056000000001</v>
       </c>
       <c r="D26">
-        <v>-97.781803</v>
+        <v>-97.781802999999996</v>
       </c>
       <c r="E26" t="s">
         <v>107</v>
@@ -1615,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1623,10 +1675,10 @@
         <v>71</v>
       </c>
       <c r="C27">
-        <v>30.3133901</v>
+        <v>30.313390099999999</v>
       </c>
       <c r="D27">
-        <v>-97.74489820000001</v>
+        <v>-97.744898200000009</v>
       </c>
       <c r="E27" t="s">
         <v>108</v>
@@ -1644,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1652,10 +1704,10 @@
         <v>72</v>
       </c>
       <c r="C28">
-        <v>30.2383486</v>
+        <v>30.238348599999998</v>
       </c>
       <c r="D28">
-        <v>-97.88846269999999</v>
+        <v>-97.888462699999991</v>
       </c>
       <c r="E28" t="s">
         <v>109</v>
@@ -1673,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1684,7 +1736,7 @@
         <v>30.2385208</v>
       </c>
       <c r="D29">
-        <v>-97.75046020000001</v>
+        <v>-97.750460200000006</v>
       </c>
       <c r="E29" t="s">
         <v>110</v>
@@ -1702,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1710,10 +1762,10 @@
         <v>74</v>
       </c>
       <c r="C30">
-        <v>30.2363889</v>
+        <v>30.236388900000001</v>
       </c>
       <c r="D30">
-        <v>-97.7826467</v>
+        <v>-97.782646700000001</v>
       </c>
       <c r="E30" t="s">
         <v>111</v>
@@ -1731,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1739,10 +1791,10 @@
         <v>75</v>
       </c>
       <c r="C31">
-        <v>30.2494427</v>
+        <v>30.249442699999999</v>
       </c>
       <c r="D31">
-        <v>-97.74555759999998</v>
+        <v>-97.745557599999984</v>
       </c>
       <c r="E31" t="s">
         <v>112</v>
@@ -1760,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1771,7 +1823,7 @@
         <v>30.3031249</v>
       </c>
       <c r="D32">
-        <v>-97.77048480000001</v>
+        <v>-97.770484800000006</v>
       </c>
       <c r="E32" t="s">
         <v>113</v>
@@ -1789,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1797,10 +1849,10 @@
         <v>77</v>
       </c>
       <c r="C33">
-        <v>30.2444744</v>
+        <v>30.244474400000001</v>
       </c>
       <c r="D33">
-        <v>-97.7439995</v>
+        <v>-97.743999500000001</v>
       </c>
       <c r="E33" t="s">
         <v>114</v>
@@ -1818,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1826,10 +1878,10 @@
         <v>78</v>
       </c>
       <c r="C34">
-        <v>30.2902076</v>
+        <v>30.290207599999999</v>
       </c>
       <c r="D34">
-        <v>-97.74738409999999</v>
+        <v>-97.747384099999991</v>
       </c>
       <c r="E34" t="s">
         <v>115</v>
@@ -1847,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1855,10 +1907,10 @@
         <v>79</v>
       </c>
       <c r="C35">
-        <v>30.2232099</v>
+        <v>30.223209900000001</v>
       </c>
       <c r="D35">
-        <v>-97.79704289999999</v>
+        <v>-97.797042899999994</v>
       </c>
       <c r="E35" t="s">
         <v>116</v>
@@ -1876,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1887,7 +1939,7 @@
         <v>30.3620719</v>
       </c>
       <c r="D36">
-        <v>-97.6792136</v>
+        <v>-97.679213599999997</v>
       </c>
       <c r="E36" t="s">
         <v>117</v>
@@ -1905,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1913,10 +1965,10 @@
         <v>81</v>
       </c>
       <c r="C37">
-        <v>30.3135492</v>
+        <v>30.313549200000001</v>
       </c>
       <c r="D37">
-        <v>-97.6910953</v>
+        <v>-97.691095300000001</v>
       </c>
       <c r="E37" t="s">
         <v>118</v>
@@ -1934,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1945,7 +1997,7 @@
         <v>30.2542361</v>
       </c>
       <c r="D38">
-        <v>-97.7695806</v>
+        <v>-97.769580599999998</v>
       </c>
       <c r="E38" t="s">
         <v>119</v>
@@ -1965,43 +2017,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F23" r:id="rId22"/>
-    <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25"/>
-    <hyperlink ref="F27" r:id="rId26"/>
-    <hyperlink ref="F28" r:id="rId27"/>
-    <hyperlink ref="F29" r:id="rId28"/>
-    <hyperlink ref="F30" r:id="rId29"/>
-    <hyperlink ref="F31" r:id="rId30"/>
-    <hyperlink ref="F32" r:id="rId31"/>
-    <hyperlink ref="F33" r:id="rId32"/>
-    <hyperlink ref="F34" r:id="rId33"/>
-    <hyperlink ref="F35" r:id="rId34"/>
-    <hyperlink ref="F36" r:id="rId35"/>
-    <hyperlink ref="F37" r:id="rId36"/>
-    <hyperlink ref="F38" r:id="rId37"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
